--- a/May'21/03.05.2021/Daily Sales Info.xlsx
+++ b/May'21/03.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -805,6 +805,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,7 +854,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13002,80 +13002,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -13114,19 +13114,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -13138,13 +13138,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -14175,11 +14175,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -14250,11 +14250,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -14291,14 +14291,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -14552,80 +14552,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -14664,19 +14664,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -14688,13 +14688,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -15725,11 +15725,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -15800,11 +15800,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -15841,14 +15841,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16102,80 +16102,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -16214,19 +16214,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -16238,13 +16238,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -17275,11 +17275,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -17350,11 +17350,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -17391,14 +17391,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -17652,80 +17652,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -17764,19 +17764,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -17788,13 +17788,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18825,11 +18825,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -18900,11 +18900,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -18941,14 +18941,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -19202,80 +19202,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -19314,19 +19314,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -19338,13 +19338,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -20375,11 +20375,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -20450,11 +20450,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -20491,14 +20491,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20752,80 +20752,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -20864,19 +20864,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -20888,13 +20888,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21925,11 +21925,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -22000,11 +22000,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -22041,14 +22041,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -22302,80 +22302,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -22414,19 +22414,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -22438,13 +22438,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23475,11 +23475,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -23550,11 +23550,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -23591,14 +23591,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23852,80 +23852,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -23964,19 +23964,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -23988,13 +23988,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -25025,11 +25025,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -25100,11 +25100,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -25141,14 +25141,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25402,80 +25402,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -25538,13 +25538,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26575,11 +26575,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -26650,11 +26650,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -26691,14 +26691,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -26952,80 +26952,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -27064,19 +27064,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -27088,13 +27088,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28125,11 +28125,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -28200,11 +28200,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -28241,14 +28241,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -28502,80 +28502,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -28614,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -28638,13 +28638,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29675,11 +29675,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -29750,11 +29750,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -29791,14 +29791,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30034,7 +30034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
@@ -30052,80 +30052,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>753669</v>
@@ -30155,19 +30155,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -30179,13 +30179,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31349,11 +31349,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>171841</v>
@@ -31424,11 +31424,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581828</v>
@@ -31465,14 +31465,14 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31721,80 +31721,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -31833,19 +31833,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -31857,13 +31857,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -32894,11 +32894,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -32969,11 +32969,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -33010,14 +33010,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -33271,80 +33271,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -33383,19 +33383,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -33407,13 +33407,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -34444,11 +34444,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -34519,11 +34519,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -34560,14 +34560,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -34821,80 +34821,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -34957,13 +34957,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -35994,11 +35994,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -36069,11 +36069,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -36110,14 +36110,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -36371,80 +36371,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -36483,19 +36483,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -36507,13 +36507,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37544,11 +37544,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -37619,11 +37619,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -37660,14 +37660,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37921,80 +37921,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -38033,19 +38033,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -38057,13 +38057,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -39094,11 +39094,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -39169,11 +39169,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -39210,14 +39210,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -39471,80 +39471,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -39583,19 +39583,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -39607,13 +39607,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -40644,11 +40644,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -40719,11 +40719,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -40760,14 +40760,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -41021,80 +41021,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -41133,19 +41133,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -41157,13 +41157,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -42194,11 +42194,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -42269,11 +42269,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -42310,14 +42310,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -42571,80 +42571,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -42683,19 +42683,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -42707,13 +42707,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43744,11 +43744,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -43819,11 +43819,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -43860,14 +43860,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -44121,80 +44121,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -44233,19 +44233,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -44257,13 +44257,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -45294,11 +45294,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -45369,11 +45369,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -45410,14 +45410,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45671,80 +45671,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -45783,19 +45783,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -45807,13 +45807,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -46844,11 +46844,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -46919,11 +46919,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -46960,14 +46960,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47203,8 +47203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -47221,80 +47221,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -47333,19 +47333,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>118314</v>
@@ -47363,13 +47363,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48174,7 +48174,7 @@
         <f t="shared" si="5"/>
         <v>-43.8005</v>
       </c>
-      <c r="U20" s="69"/>
+      <c r="U20" s="53"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
@@ -48227,7 +48227,7 @@
         <f t="shared" si="5"/>
         <v>50.311999999999998</v>
       </c>
-      <c r="U21" s="69"/>
+      <c r="U21" s="53"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
@@ -48280,7 +48280,7 @@
         <f t="shared" si="5"/>
         <v>5.4975000000000023</v>
       </c>
-      <c r="U22" s="69"/>
+      <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
@@ -48553,11 +48553,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>166216</v>
@@ -48628,11 +48628,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -48669,14 +48669,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -48931,80 +48931,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -49043,19 +49043,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -49067,13 +49067,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50104,11 +50104,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -50179,11 +50179,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -50220,14 +50220,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50481,80 +50481,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -50593,19 +50593,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -50617,13 +50617,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -51654,11 +51654,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -51729,11 +51729,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -51770,14 +51770,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52030,78 +52030,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D4</f>
@@ -52140,19 +52140,19 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'2'!D5+'1'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -52191,13 +52191,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53858,11 +53858,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>338057</v>
@@ -53933,11 +53933,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -53974,14 +53974,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -54231,80 +54231,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -54343,19 +54343,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -54367,13 +54367,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -55404,11 +55404,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -55479,11 +55479,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -55520,14 +55520,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55781,80 +55781,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -55896,19 +55896,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -55920,13 +55920,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56957,11 +56957,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -57032,11 +57032,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -57073,14 +57073,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -57334,80 +57334,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -57446,19 +57446,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -57470,13 +57470,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -58507,11 +58507,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -58582,11 +58582,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -58623,14 +58623,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -58884,80 +58884,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -58996,19 +58996,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -59020,13 +59020,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -60057,11 +60057,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -60132,11 +60132,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -60173,14 +60173,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -60434,80 +60434,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -60546,19 +60546,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -60570,13 +60570,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61607,11 +61607,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -61682,11 +61682,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -61723,14 +61723,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -61984,80 +61984,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -62096,19 +62096,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -62120,13 +62120,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -63157,11 +63157,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
         <v>0</v>
@@ -63232,11 +63232,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>533926</v>
@@ -63273,14 +63273,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
